--- a/AZGas_TestScenario.xlsx
+++ b/AZGas_TestScenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcurt\Desktop\AZGasTestPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A75754-FDD1-4F19-8395-3B2DF771E834}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C467CB-E31E-4C93-992C-5ADF51815B67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDE17A92-904B-42F4-9FAD-C9666220B1F7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Test Scenario #</t>
   </si>
@@ -63,51 +63,51 @@
     <t>S1.6</t>
   </si>
   <si>
-    <t>S1.7</t>
-  </si>
-  <si>
-    <t>S1.8</t>
-  </si>
-  <si>
-    <t>S1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the Search Functionality </t>
-  </si>
-  <si>
-    <t>Check the Product Description Page</t>
-  </si>
-  <si>
-    <t>Check the Payments Functionality</t>
-  </si>
-  <si>
-    <t>Check the Order History</t>
-  </si>
-  <si>
-    <t>Check Home Page behavior for returning customers</t>
-  </si>
-  <si>
-    <t>Check Category/Product Pages</t>
-  </si>
-  <si>
-    <t>Check Customer Service/Contact Pages</t>
-  </si>
-  <si>
-    <t>Check Daily Deals pages</t>
-  </si>
-  <si>
     <t>Test Scenario Template</t>
   </si>
   <si>
     <t>* Test Cases field is Optional</t>
   </si>
   <si>
-    <t>Check the Homepage Functionality</t>
+    <t xml:space="preserve">Check the Fireplace Sets page Functionality </t>
+  </si>
+  <si>
+    <t>Check the Home page Functionality</t>
+  </si>
+  <si>
+    <t>Check the Tank Systems Page</t>
+  </si>
+  <si>
+    <t>Check the Instructions Functionality</t>
+  </si>
+  <si>
+    <t>Check the Q&amp;A Functionality</t>
+  </si>
+  <si>
+    <t>Check Specials Page Functionality</t>
+  </si>
+  <si>
+    <t>Check the Website Funcitonality on Mobile Phone</t>
   </si>
   <si>
     <t>1. All Nav Menu links navigate to the proper area of the page
 2. All Header Links are working
-3. All Footer Links are working</t>
+3. All Footer Links are working
+4. All Main Page Links are working
+5. All Images are working</t>
+  </si>
+  <si>
+    <t>1. Check that the shopify page loads
+2. All Nav Menu links navigate to the proper page</t>
+  </si>
+  <si>
+    <t>1. Dropdown Nav Menu works properly
+2. Header Nav Menu links are working
+3. Footer menu links are working
+4. Speed Links are working</t>
+  </si>
+  <si>
+    <t>S1.7</t>
   </si>
 </sst>
 </file>
@@ -530,14 +530,14 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
     <col min="4" max="4" width="125.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -546,13 +546,13 @@
     </row>
     <row r="2" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -577,13 +577,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -591,11 +591,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -605,9 +607,11 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -617,9 +621,11 @@
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -629,9 +635,11 @@
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>6</v>
       </c>
@@ -641,42 +649,38 @@
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
